--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.741175418288962</v>
+        <v>2.50396611596338</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1429310344827586</v>
+        <v>0.1636206896551724</v>
       </c>
       <c r="D29" t="n">
         <v>200</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>26.91206900452489</v>
+        <v>23.41206900452489</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>Product</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Kashundi Mayo</t>
+  </si>
+  <si>
+    <t>Chicken Semi Premium Momo 25 Gm</t>
   </si>
   <si>
     <t>gm</t>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>0.2055110859728506</v>
@@ -605,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>0.2752</v>
@@ -622,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>1.0868</v>
@@ -639,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>0.1994021176470588</v>
@@ -656,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>0.7776000000000001</v>
@@ -673,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>0.172248951048951</v>
@@ -690,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>0.1016207642031172</v>
@@ -707,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>0.09775683760683759</v>
@@ -724,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>0.1652723076923077</v>
@@ -741,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>0.1065974389140271</v>
@@ -758,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>0.1911463865546218</v>
@@ -775,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>0.294258076923077</v>
@@ -792,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>0.3142580769230769</v>
@@ -809,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>0.0663273076923077</v>
@@ -826,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>0.06155807692307693</v>
@@ -843,7 +846,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>0.05829337104072399</v>
@@ -860,7 +863,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>0.1475144524886878</v>
@@ -877,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>0.189802556561086</v>
@@ -894,7 +897,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>9.304472096530921</v>
@@ -911,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>3.164245798319328</v>
@@ -928,10 +931,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>5.021231705414261</v>
+        <v>4.607438601965986</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -945,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>0.1333994117647059</v>
@@ -962,7 +965,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>2.21497205882353</v>
@@ -979,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.1286319230769231</v>
@@ -996,7 +999,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>59.41206900452489</v>
@@ -1013,7 +1016,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>2.50396611596338</v>
@@ -1030,7 +1033,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>2.343009411764706</v>
@@ -1047,7 +1050,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.1636206896551724</v>
@@ -1064,7 +1067,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>0.1949216666666667</v>
@@ -1081,7 +1084,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>3.809191176470589</v>
@@ -1098,7 +1101,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.1476476846057572</v>
@@ -1115,7 +1118,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33">
         <v>0.1852723076923077</v>
@@ -1132,7 +1135,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34">
         <v>0.1152723076923077</v>
@@ -1149,7 +1152,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>13.342</v>
@@ -1166,7 +1169,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>10.942</v>
@@ -1183,7 +1186,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>5.688627450980392</v>
@@ -1200,7 +1203,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>7.021960784313726</v>
@@ -1217,7 +1220,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>22.83706900452488</v>
@@ -1234,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>0.8516608695652174</v>
@@ -1251,7 +1254,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>0.316003953194181</v>
@@ -1268,7 +1271,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>3.445602076124568</v>
@@ -1285,7 +1288,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43">
         <v>0.475</v>
@@ -1302,7 +1305,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>0.1911382389140271</v>
@@ -1319,7 +1322,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>16.08229411764706</v>
@@ -1336,7 +1339,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>36.38730882352942</v>
@@ -1353,7 +1356,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>0.1490016722408027</v>
@@ -1370,7 +1373,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>0.1778361538461539</v>
@@ -1387,7 +1390,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>0.9413529411764706</v>
@@ -1404,7 +1407,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>0.0950959185520362</v>
@@ -1421,7 +1424,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>0.112207264957265</v>
@@ -1438,7 +1441,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>0.1170247916170517</v>
@@ -1455,7 +1458,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>0.1884145034532032</v>
@@ -1472,7 +1475,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>0.1465235671191554</v>
@@ -1489,7 +1492,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>0.124597816399287</v>
@@ -1506,7 +1509,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>2.172088235294118</v>
@@ -1523,7 +1526,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>0.1338235294117647</v>
@@ -1532,6 +1535,23 @@
         <v>0</v>
       </c>
       <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>2.303719300982993</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>0</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>Product</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Chicken Semi Premium Momo 25 Gm</t>
+  </si>
+  <si>
+    <t>Veg Momo Soup</t>
+  </si>
+  <si>
+    <t>Roti Flat Bread</t>
   </si>
   <si>
     <t>gm</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0.2055110859728506</v>
@@ -608,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0.2752</v>
@@ -625,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1.0868</v>
@@ -642,10 +648,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>0.1994021176470588</v>
+        <v>0.6739054901960786</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -659,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>0.7776000000000001</v>
@@ -676,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>0.172248951048951</v>
@@ -693,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>0.1016207642031172</v>
@@ -710,7 +716,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>0.09775683760683759</v>
@@ -727,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0.1652723076923077</v>
@@ -744,7 +750,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>0.1065974389140271</v>
@@ -761,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>0.1911463865546218</v>
@@ -778,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>0.294258076923077</v>
@@ -795,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>0.3142580769230769</v>
@@ -812,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>0.0663273076923077</v>
@@ -829,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>0.06155807692307693</v>
@@ -846,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>0.05829337104072399</v>
@@ -863,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>0.1475144524886878</v>
@@ -880,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>0.189802556561086</v>
@@ -897,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>9.304472096530921</v>
@@ -914,7 +920,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>3.164245798319328</v>
@@ -931,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>4.607438601965986</v>
@@ -948,7 +954,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>0.1333994117647059</v>
@@ -965,7 +971,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>2.21497205882353</v>
@@ -982,7 +988,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>0.1286319230769231</v>
@@ -999,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>59.41206900452489</v>
@@ -1016,7 +1022,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>2.50396611596338</v>
@@ -1033,7 +1039,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>2.343009411764706</v>
@@ -1050,10 +1056,10 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>0.1636206896551724</v>
+        <v>0.2548275862068966</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -1067,7 +1073,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>0.1949216666666667</v>
@@ -1084,7 +1090,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>3.809191176470589</v>
@@ -1101,7 +1107,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>0.1476476846057572</v>
@@ -1118,7 +1124,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>0.1852723076923077</v>
@@ -1135,7 +1141,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.1152723076923077</v>
@@ -1152,7 +1158,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>13.342</v>
@@ -1169,7 +1175,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>10.942</v>
@@ -1186,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>5.688627450980392</v>
@@ -1203,7 +1209,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>7.021960784313726</v>
@@ -1220,7 +1226,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>22.83706900452488</v>
@@ -1237,7 +1243,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>0.8516608695652174</v>
@@ -1254,7 +1260,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>0.316003953194181</v>
@@ -1271,7 +1277,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>3.445602076124568</v>
@@ -1288,7 +1294,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43">
         <v>0.475</v>
@@ -1305,7 +1311,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>0.1911382389140271</v>
@@ -1322,7 +1328,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>16.08229411764706</v>
@@ -1339,7 +1345,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>36.38730882352942</v>
@@ -1356,7 +1362,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>0.1490016722408027</v>
@@ -1373,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>0.1778361538461539</v>
@@ -1390,7 +1396,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>0.9413529411764706</v>
@@ -1407,7 +1413,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>0.0950959185520362</v>
@@ -1424,7 +1430,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>0.112207264957265</v>
@@ -1441,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>0.1170247916170517</v>
@@ -1458,7 +1464,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>0.1884145034532032</v>
@@ -1475,7 +1481,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>0.1465235671191554</v>
@@ -1492,7 +1498,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>0.124597816399287</v>
@@ -1509,7 +1515,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>2.172088235294118</v>
@@ -1526,7 +1532,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>0.1338235294117647</v>
@@ -1543,7 +1549,7 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>2.303719300982993</v>
@@ -1552,6 +1558,40 @@
         <v>0</v>
       </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>1.105421568627451</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>1.564230769230769</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>0</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>Product</t>
   </si>
@@ -208,10 +208,61 @@
     <t>Roti Flat Bread</t>
   </si>
   <si>
+    <t>Fried Chicken 1st Marination Leg</t>
+  </si>
+  <si>
+    <t>Fried Chicken 1st Marination Popcorn</t>
+  </si>
+  <si>
+    <t>Fried Chicken 1st Marination Strips</t>
+  </si>
+  <si>
+    <t>Fried Chicken 1st Marination Wings</t>
+  </si>
+  <si>
+    <t>Fried Chicken 2nd Marination Leg</t>
+  </si>
+  <si>
+    <t>Fried Chicken 2nd Marination Popcorn</t>
+  </si>
+  <si>
+    <t>Fried Chicken 2nd Marination Strips</t>
+  </si>
+  <si>
+    <t>Fried Chicken 2nd Marination Wings</t>
+  </si>
+  <si>
+    <t>Fried Chicken Batter Masala</t>
+  </si>
+  <si>
+    <t>Fried Chicken Batter Pre Mix 70 Gm Maida (1 Pkt)</t>
+  </si>
+  <si>
+    <t>Fried Chicken Popcorn</t>
+  </si>
+  <si>
+    <t>Fried Chicken Legs</t>
+  </si>
+  <si>
+    <t>Fried Chicken Wings</t>
+  </si>
+  <si>
+    <t>Fried Chicken Strips</t>
+  </si>
+  <si>
+    <t>Peanut Chutney</t>
+  </si>
+  <si>
+    <t>Fried Chicken Patty</t>
+  </si>
+  <si>
     <t>gm</t>
   </si>
   <si>
     <t>pieces</t>
+  </si>
+  <si>
+    <t>Pieces</t>
   </si>
 </sst>
 </file>
@@ -569,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>0.2055110859728506</v>
@@ -614,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0.2752</v>
@@ -631,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>1.0868</v>
@@ -648,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>0.6739054901960786</v>
@@ -665,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>0.7776000000000001</v>
@@ -682,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>0.172248951048951</v>
@@ -699,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>0.1016207642031172</v>
@@ -716,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>0.09775683760683759</v>
@@ -733,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>0.1652723076923077</v>
@@ -750,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>0.1065974389140271</v>
@@ -767,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>0.1911463865546218</v>
@@ -784,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>0.294258076923077</v>
@@ -801,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>0.3142580769230769</v>
@@ -818,7 +869,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>0.0663273076923077</v>
@@ -835,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>0.06155807692307693</v>
@@ -852,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>0.05829337104072399</v>
@@ -869,7 +920,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>0.1475144524886878</v>
@@ -886,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>0.189802556561086</v>
@@ -903,7 +954,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C20">
         <v>9.304472096530921</v>
@@ -920,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>3.164245798319328</v>
@@ -937,7 +988,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>4.607438601965986</v>
@@ -954,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>0.1333994117647059</v>
@@ -971,7 +1022,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C24">
         <v>2.21497205882353</v>
@@ -988,7 +1039,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>0.1286319230769231</v>
@@ -1005,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>59.41206900452489</v>
@@ -1022,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>2.50396611596338</v>
@@ -1039,7 +1090,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>2.343009411764706</v>
@@ -1056,7 +1107,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>0.2548275862068966</v>
@@ -1073,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>0.1949216666666667</v>
@@ -1090,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>3.809191176470589</v>
@@ -1107,7 +1158,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <v>0.1476476846057572</v>
@@ -1124,7 +1175,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>0.1852723076923077</v>
@@ -1141,7 +1192,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C34">
         <v>0.1152723076923077</v>
@@ -1158,7 +1209,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C35">
         <v>13.342</v>
@@ -1175,7 +1226,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>10.942</v>
@@ -1192,7 +1243,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>5.688627450980392</v>
@@ -1209,7 +1260,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>7.021960784313726</v>
@@ -1226,7 +1277,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C39">
         <v>22.83706900452488</v>
@@ -1243,7 +1294,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>0.8516608695652174</v>
@@ -1260,7 +1311,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>0.316003953194181</v>
@@ -1277,7 +1328,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C42">
         <v>3.445602076124568</v>
@@ -1294,7 +1345,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.475</v>
@@ -1311,7 +1362,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>0.1911382389140271</v>
@@ -1328,7 +1379,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>16.08229411764706</v>
@@ -1345,7 +1396,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>36.38730882352942</v>
@@ -1362,7 +1413,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.1490016722408027</v>
@@ -1379,7 +1430,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>0.1778361538461539</v>
@@ -1396,7 +1447,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C49">
         <v>0.9413529411764706</v>
@@ -1413,7 +1464,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.0950959185520362</v>
@@ -1430,7 +1481,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C51">
         <v>0.112207264957265</v>
@@ -1447,7 +1498,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C52">
         <v>0.1170247916170517</v>
@@ -1464,7 +1515,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C53">
         <v>0.1884145034532032</v>
@@ -1481,7 +1532,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C54">
         <v>0.1465235671191554</v>
@@ -1498,7 +1549,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C55">
         <v>0.124597816399287</v>
@@ -1515,7 +1566,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>2.172088235294118</v>
@@ -1532,7 +1583,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C57">
         <v>0.1338235294117647</v>
@@ -1549,7 +1600,7 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C58">
         <v>2.303719300982993</v>
@@ -1566,7 +1617,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>1.105421568627451</v>
@@ -1583,7 +1634,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C60">
         <v>1.564230769230769</v>
@@ -1592,6 +1643,278 @@
         <v>0</v>
       </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61">
+        <v>0.2527571794871795</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62">
+        <v>0.2827571794871795</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>0.2827571794871795</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64">
+        <v>0.1527571794871795</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <v>0.2769523076923077</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>0.3258923076923076</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67">
+        <v>0.3258923076923076</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68">
+        <v>0.1919189743589743</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>0.5429714285714285</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70">
+        <v>6.391</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71">
+        <v>4.046756666666666</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72">
+        <v>35.56756666666666</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73">
+        <v>19.33397619047619</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74">
+        <v>10.11689166666667</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>0.102220979020979</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>16.18702666666666</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>0</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -654,7 +654,7 @@
         <v>0.2055110859728506</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0.2752</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1.0868</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0.6739054901960786</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.7776000000000001</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0.172248951048951</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0.1016207642031172</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0.09775683760683759</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0.1652723076923077</v>
       </c>
       <c r="D10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>0.1065974389140271</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0.1911463865546218</v>
       </c>
       <c r="D12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0.294258076923077</v>
       </c>
       <c r="D13">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0.3142580769230769</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0.0663273076923077</v>
       </c>
       <c r="D15">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0.06155807692307693</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0.05829337104072399</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0.1475144524886878</v>
       </c>
       <c r="D18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0.189802556561086</v>
       </c>
       <c r="D19">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1011,7 +1011,7 @@
         <v>0.1333994117647059</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1045,7 +1045,7 @@
         <v>0.1286319230769231</v>
       </c>
       <c r="D25">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1200</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1113,7 +1113,7 @@
         <v>0.2548275862068966</v>
       </c>
       <c r="D29">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0.1949216666666667</v>
       </c>
       <c r="D30">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0.1476476846057572</v>
       </c>
       <c r="D32">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0.1852723076923077</v>
       </c>
       <c r="D33">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0.1152723076923077</v>
       </c>
       <c r="D34">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -756,7 +756,7 @@
         <v>0.1016207642031172</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0.09775683760683759</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0.1911463865546218</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0.1475144524886878</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0.189802556561086</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>702</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1198,7 +1198,7 @@
         <v>0.1152723076923077</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>0.1911382389140271</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1510</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0.1170247916170517</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:5">

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>Product</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Fried Chicken Patty</t>
+  </si>
+  <si>
+    <t>Basa Fish Finger Fry 15 GM Filet</t>
   </si>
   <si>
     <t>gm</t>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>0.2055110859728506</v>
@@ -665,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0.2752</v>
@@ -682,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>1.0868</v>
@@ -699,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>0.6739054901960786</v>
@@ -716,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0.7776000000000001</v>
@@ -733,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>0.172248951048951</v>
@@ -750,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>0.1016207642031172</v>
@@ -767,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0.09775683760683759</v>
@@ -784,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>0.1652723076923077</v>
@@ -801,7 +804,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>0.1065974389140271</v>
@@ -818,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>0.1911463865546218</v>
@@ -835,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>0.294258076923077</v>
@@ -852,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>0.3142580769230769</v>
@@ -869,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>0.0663273076923077</v>
@@ -886,7 +889,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>0.06155807692307693</v>
@@ -903,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>0.05829337104072399</v>
@@ -920,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>0.1475144524886878</v>
@@ -937,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>0.189802556561086</v>
@@ -954,7 +957,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>9.304472096530921</v>
@@ -971,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21">
         <v>3.164245798319328</v>
@@ -988,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>4.607438601965986</v>
@@ -1005,7 +1008,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>0.1333994117647059</v>
@@ -1022,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>2.21497205882353</v>
@@ -1039,7 +1042,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>0.1286319230769231</v>
@@ -1056,7 +1059,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>59.41206900452489</v>
@@ -1073,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>2.50396611596338</v>
@@ -1090,10 +1093,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28">
-        <v>2.343009411764706</v>
+        <v>2.076209411764706</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1107,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>0.2548275862068966</v>
@@ -1124,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30">
         <v>0.1949216666666667</v>
@@ -1141,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>3.809191176470589</v>
@@ -1158,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32">
         <v>0.1476476846057572</v>
@@ -1175,7 +1178,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33">
         <v>0.1852723076923077</v>
@@ -1192,7 +1195,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <v>0.1152723076923077</v>
@@ -1209,7 +1212,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>13.342</v>
@@ -1226,7 +1229,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36">
         <v>10.942</v>
@@ -1243,7 +1246,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>5.688627450980392</v>
@@ -1260,7 +1263,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>7.021960784313726</v>
@@ -1277,7 +1280,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>22.83706900452488</v>
@@ -1294,7 +1297,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>0.8516608695652174</v>
@@ -1311,7 +1314,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>0.316003953194181</v>
@@ -1328,7 +1331,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>3.445602076124568</v>
@@ -1345,7 +1348,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43">
         <v>0.475</v>
@@ -1362,7 +1365,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.1911382389140271</v>
@@ -1379,7 +1382,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>16.08229411764706</v>
@@ -1396,7 +1399,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>36.38730882352942</v>
@@ -1413,7 +1416,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47">
         <v>0.1490016722408027</v>
@@ -1430,7 +1433,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.1778361538461539</v>
@@ -1447,7 +1450,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>0.9413529411764706</v>
@@ -1464,7 +1467,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <v>0.0950959185520362</v>
@@ -1481,7 +1484,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.112207264957265</v>
@@ -1498,7 +1501,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>0.1170247916170517</v>
@@ -1515,7 +1518,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <v>0.1884145034532032</v>
@@ -1532,7 +1535,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54">
         <v>0.1465235671191554</v>
@@ -1549,7 +1552,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <v>0.124597816399287</v>
@@ -1566,7 +1569,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56">
         <v>2.172088235294118</v>
@@ -1583,7 +1586,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>0.1338235294117647</v>
@@ -1600,10 +1603,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58">
-        <v>2.303719300982993</v>
+        <v>2.200271025120924</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1617,7 +1620,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59">
         <v>1.105421568627451</v>
@@ -1634,7 +1637,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>1.564230769230769</v>
@@ -1651,7 +1654,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61">
         <v>0.2527571794871795</v>
@@ -1668,7 +1671,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62">
         <v>0.2827571794871795</v>
@@ -1685,7 +1688,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63">
         <v>0.2827571794871795</v>
@@ -1702,7 +1705,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>0.1527571794871795</v>
@@ -1719,7 +1722,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>0.2769523076923077</v>
@@ -1736,7 +1739,7 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66">
         <v>0.3258923076923076</v>
@@ -1753,7 +1756,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C67">
         <v>0.3258923076923076</v>
@@ -1770,7 +1773,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>0.1919189743589743</v>
@@ -1787,7 +1790,7 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C69">
         <v>0.5429714285714285</v>
@@ -1804,7 +1807,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <v>6.391</v>
@@ -1821,7 +1824,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>4.046756666666666</v>
@@ -1838,7 +1841,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72">
         <v>35.56756666666666</v>
@@ -1855,7 +1858,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73">
         <v>19.33397619047619</v>
@@ -1872,7 +1875,7 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>10.11689166666667</v>
@@ -1889,7 +1892,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75">
         <v>0.102220979020979</v>
@@ -1906,7 +1909,7 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>16.18702666666666</v>
@@ -1915,6 +1918,23 @@
         <v>0</v>
       </c>
       <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>6.524876858435682</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>0</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -756,7 +756,7 @@
         <v>0.1016207642031172</v>
       </c>
       <c r="D8">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>623</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>584</v>
+        <v>984</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>718</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1895,7 +1895,7 @@
         <v>0.102220979020979</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>984</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>Product</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Fried Chicken Patty</t>
+  </si>
+  <si>
+    <t>Basa Fish Finger Fry 15 GM Filet</t>
   </si>
   <si>
     <t>gm</t>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>0.2055110859728506</v>
@@ -665,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0.2752</v>
@@ -682,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>1.0868</v>
@@ -699,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>0.6739054901960786</v>
@@ -716,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0.7776000000000001</v>
@@ -733,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>0.172248951048951</v>
@@ -750,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>0.1016207642031172</v>
@@ -767,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0.09775683760683759</v>
@@ -784,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>0.1652723076923077</v>
@@ -801,7 +804,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>0.1065974389140271</v>
@@ -818,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>0.1911463865546218</v>
@@ -835,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>0.294258076923077</v>
@@ -852,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>0.3142580769230769</v>
@@ -869,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>0.0663273076923077</v>
@@ -886,7 +889,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>0.06155807692307693</v>
@@ -903,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>0.05829337104072399</v>
@@ -920,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>0.1475144524886878</v>
@@ -937,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>0.189802556561086</v>
@@ -954,7 +957,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>9.304472096530921</v>
@@ -971,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21">
         <v>3.164245798319328</v>
@@ -988,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>4.607438601965986</v>
@@ -1005,7 +1008,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>0.1333994117647059</v>
@@ -1022,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>2.21497205882353</v>
@@ -1039,7 +1042,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>0.1286319230769231</v>
@@ -1056,7 +1059,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>59.41206900452489</v>
@@ -1073,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>2.50396611596338</v>
@@ -1090,10 +1093,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28">
-        <v>2.343009411764706</v>
+        <v>1.989009411764706</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1107,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>0.2548275862068966</v>
@@ -1124,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30">
         <v>0.1949216666666667</v>
@@ -1141,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>3.809191176470589</v>
@@ -1158,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32">
         <v>0.1476476846057572</v>
@@ -1175,7 +1178,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33">
         <v>0.1852723076923077</v>
@@ -1192,7 +1195,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <v>0.1152723076923077</v>
@@ -1209,7 +1212,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>13.342</v>
@@ -1226,7 +1229,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36">
         <v>10.942</v>
@@ -1243,7 +1246,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>5.688627450980392</v>
@@ -1260,7 +1263,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>7.021960784313726</v>
@@ -1277,7 +1280,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>22.83706900452488</v>
@@ -1294,7 +1297,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>0.8516608695652174</v>
@@ -1311,7 +1314,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>0.316003953194181</v>
@@ -1328,7 +1331,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>3.445602076124568</v>
@@ -1345,7 +1348,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43">
         <v>0.475</v>
@@ -1362,7 +1365,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.1911382389140271</v>
@@ -1379,7 +1382,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>16.08229411764706</v>
@@ -1396,7 +1399,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>36.38730882352942</v>
@@ -1413,7 +1416,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47">
         <v>0.1490016722408027</v>
@@ -1430,7 +1433,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.1778361538461539</v>
@@ -1447,7 +1450,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>0.9413529411764706</v>
@@ -1464,7 +1467,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <v>0.0950959185520362</v>
@@ -1481,7 +1484,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.112207264957265</v>
@@ -1498,7 +1501,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>0.1170247916170517</v>
@@ -1515,7 +1518,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <v>0.1884145034532032</v>
@@ -1532,7 +1535,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54">
         <v>0.1465235671191554</v>
@@ -1549,7 +1552,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <v>0.124597816399287</v>
@@ -1566,7 +1569,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56">
         <v>2.172088235294118</v>
@@ -1583,7 +1586,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>0.1338235294117647</v>
@@ -1600,10 +1603,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58">
-        <v>2.303719300982993</v>
+        <v>2.200271025120924</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1617,7 +1620,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59">
         <v>1.105421568627451</v>
@@ -1634,7 +1637,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>1.564230769230769</v>
@@ -1651,7 +1654,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61">
         <v>0.2527571794871795</v>
@@ -1668,7 +1671,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62">
         <v>0.2827571794871795</v>
@@ -1685,7 +1688,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63">
         <v>0.2827571794871795</v>
@@ -1702,7 +1705,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>0.1527571794871795</v>
@@ -1719,7 +1722,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>0.2769523076923077</v>
@@ -1736,7 +1739,7 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66">
         <v>0.3258923076923076</v>
@@ -1753,7 +1756,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C67">
         <v>0.3258923076923076</v>
@@ -1770,7 +1773,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>0.1919189743589743</v>
@@ -1787,7 +1790,7 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C69">
         <v>0.5429714285714285</v>
@@ -1804,7 +1807,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <v>6.391</v>
@@ -1821,7 +1824,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>4.046756666666666</v>
@@ -1838,7 +1841,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72">
         <v>35.56756666666666</v>
@@ -1855,7 +1858,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73">
         <v>19.33397619047619</v>
@@ -1872,7 +1875,7 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>10.11689166666667</v>
@@ -1889,7 +1892,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75">
         <v>0.102220979020979</v>
@@ -1906,7 +1909,7 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>16.18702666666666</v>
@@ -1916,6 +1919,23 @@
       </c>
       <c r="E76">
         <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>6.524876858435682</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -756,7 +756,7 @@
         <v>0.1016207642031172</v>
       </c>
       <c r="D8">
-        <v>2300</v>
+        <v>1540</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0.1475144524886878</v>
       </c>
       <c r="D18">
-        <v>2900</v>
+        <v>2680</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1025</v>
+        <v>975</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>934</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1895,7 +1895,7 @@
         <v>0.102220979020979</v>
       </c>
       <c r="D75">
-        <v>1050</v>
+        <v>542</v>
       </c>
       <c r="E75">
         <v>0</v>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>Product</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>Fried Chicken Patty</t>
-  </si>
-  <si>
-    <t>Basa Fish Finger Fry 15 GM Filet</t>
   </si>
   <si>
     <t>gm</t>
@@ -623,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>0.2055110859728506</v>
@@ -668,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0.2752</v>
@@ -685,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>1.0868</v>
@@ -702,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>0.6739054901960786</v>
@@ -719,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>0.7776000000000001</v>
@@ -736,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>0.172248951048951</v>
@@ -753,13 +750,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>0.1016207642031172</v>
       </c>
       <c r="D8">
-        <v>1540</v>
+        <v>700</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -770,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>0.09775683760683759</v>
@@ -787,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>0.1652723076923077</v>
@@ -804,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>0.1065974389140271</v>
@@ -821,13 +818,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>0.1911463865546218</v>
       </c>
       <c r="D12">
-        <v>3900</v>
+        <v>1150</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -838,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>0.294258076923077</v>
@@ -855,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>0.3142580769230769</v>
@@ -872,7 +869,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>0.0663273076923077</v>
@@ -889,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>0.06155807692307693</v>
@@ -906,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>0.05829337104072399</v>
@@ -923,13 +920,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>0.1475144524886878</v>
       </c>
       <c r="D18">
-        <v>2680</v>
+        <v>2380</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -940,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>0.189802556561086</v>
@@ -957,7 +954,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20">
         <v>9.304472096530921</v>
@@ -974,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>3.164245798319328</v>
@@ -991,7 +988,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>4.607438601965986</v>
@@ -1008,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>0.1333994117647059</v>
@@ -1025,7 +1022,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24">
         <v>2.21497205882353</v>
@@ -1034,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>975</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1042,7 +1039,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>0.1286319230769231</v>
@@ -1059,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>59.41206900452489</v>
@@ -1068,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1076,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>2.50396611596338</v>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>834</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1093,16 +1090,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28">
-        <v>1.989009411764706</v>
+        <v>2.343009411764706</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>636</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1110,7 +1107,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>0.2548275862068966</v>
@@ -1127,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>0.1949216666666667</v>
@@ -1144,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>3.809191176470589</v>
@@ -1161,7 +1158,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <v>0.1476476846057572</v>
@@ -1178,7 +1175,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>0.1852723076923077</v>
@@ -1195,7 +1192,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34">
         <v>0.1152723076923077</v>
@@ -1212,7 +1209,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35">
         <v>13.342</v>
@@ -1229,7 +1226,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>10.942</v>
@@ -1246,7 +1243,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>5.688627450980392</v>
@@ -1263,7 +1260,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>7.021960784313726</v>
@@ -1280,7 +1277,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39">
         <v>22.83706900452488</v>
@@ -1297,7 +1294,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>0.8516608695652174</v>
@@ -1314,7 +1311,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>0.316003953194181</v>
@@ -1331,7 +1328,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42">
         <v>3.445602076124568</v>
@@ -1348,7 +1345,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.475</v>
@@ -1365,13 +1362,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>0.1911382389140271</v>
       </c>
       <c r="D44">
-        <v>1510</v>
+        <v>3890</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1382,7 +1379,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>16.08229411764706</v>
@@ -1399,7 +1396,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>36.38730882352942</v>
@@ -1416,7 +1413,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.1490016722408027</v>
@@ -1433,7 +1430,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>0.1778361538461539</v>
@@ -1450,7 +1447,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49">
         <v>0.9413529411764706</v>
@@ -1467,7 +1464,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.0950959185520362</v>
@@ -1484,7 +1481,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51">
         <v>0.112207264957265</v>
@@ -1501,7 +1498,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52">
         <v>0.1170247916170517</v>
@@ -1518,7 +1515,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53">
         <v>0.1884145034532032</v>
@@ -1535,7 +1532,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54">
         <v>0.1465235671191554</v>
@@ -1552,7 +1549,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55">
         <v>0.124597816399287</v>
@@ -1569,7 +1566,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>2.172088235294118</v>
@@ -1586,7 +1583,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57">
         <v>0.1338235294117647</v>
@@ -1603,10 +1600,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58">
-        <v>2.200271025120924</v>
+        <v>2.303719300982993</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1620,7 +1617,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>1.105421568627451</v>
@@ -1637,7 +1634,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60">
         <v>1.564230769230769</v>
@@ -1654,7 +1651,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61">
         <v>0.2527571794871795</v>
@@ -1671,7 +1668,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62">
         <v>0.2827571794871795</v>
@@ -1688,7 +1685,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63">
         <v>0.2827571794871795</v>
@@ -1705,7 +1702,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64">
         <v>0.1527571794871795</v>
@@ -1722,7 +1719,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65">
         <v>0.2769523076923077</v>
@@ -1739,7 +1736,7 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66">
         <v>0.3258923076923076</v>
@@ -1756,7 +1753,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67">
         <v>0.3258923076923076</v>
@@ -1773,7 +1770,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68">
         <v>0.1919189743589743</v>
@@ -1790,7 +1787,7 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <v>0.5429714285714285</v>
@@ -1807,7 +1804,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70">
         <v>6.391</v>
@@ -1824,7 +1821,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71">
         <v>4.046756666666666</v>
@@ -1833,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>69</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1841,7 +1838,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72">
         <v>35.56756666666666</v>
@@ -1850,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1858,7 +1855,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73">
         <v>19.33397619047619</v>
@@ -1867,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1875,7 +1872,7 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74">
         <v>10.11689166666667</v>
@@ -1884,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1892,13 +1889,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75">
         <v>0.102220979020979</v>
       </c>
       <c r="D75">
-        <v>542</v>
+        <v>242</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1909,7 +1906,7 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76">
         <v>16.18702666666666</v>
@@ -1919,23 +1916,6 @@
       </c>
       <c r="E76">
         <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77">
-        <v>6.524876858435682</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Own_Production_Products_List.xlsx
@@ -756,7 +756,7 @@
         <v>0.1016207642031172</v>
       </c>
       <c r="D8">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>0.1065974389140271</v>
       </c>
       <c r="D11">
-        <v>5800</v>
+        <v>5450</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>220</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1895,7 +1895,7 @@
         <v>0.102220979020979</v>
       </c>
       <c r="D75">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
